--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 01,09,25ц-выезд 03,09.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 01,09,25ц-выезд 03,09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3897841A-7679-4600-BBF3-C96303CB8AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A3625-2097-4651-A9F3-359322C20F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$178</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="255">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -1979,11 +1982,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1701"/>
+  <dimension ref="A1:L1702"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="9" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D176,4)</f>
+        <f>RIGHT(D11:D177,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2159,7 +2162,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D177,4)</f>
+        <f>RIGHT(D12:D178,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2184,7 +2187,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D177,4)</f>
+        <f>RIGHT(D13:D178,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2208,7 +2211,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D178,4)</f>
+        <f>RIGHT(D14:D179,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2232,7 +2235,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D179,4)</f>
+        <f>RIGHT(D15:D180,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2258,7 +2261,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D179,4)</f>
+        <f>RIGHT(D16:D180,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2282,7 +2285,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f t="shared" ref="A17:A24" si="0">RIGHT(D17:D179,4)</f>
+        <f>RIGHT(D17:D180,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2312,7 +2315,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D181,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2338,7 +2341,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D182,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2364,7 +2367,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D183,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2388,7 +2391,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D184,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2418,7 +2421,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D185,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2448,7 +2451,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D186,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2478,7 +2481,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D187,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2508,7 +2511,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D190,4)</f>
+        <f>RIGHT(D25:D191,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2532,7 +2535,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D190,4)</f>
+        <f>RIGHT(D26:D191,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2556,7 +2559,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D191,4)</f>
+        <f>RIGHT(D27:D192,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2586,7 +2589,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f t="shared" ref="A28:A33" si="1">RIGHT(D28:D194,4)</f>
+        <f>RIGHT(D28:D195,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2616,7 +2619,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D29:D196,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2646,7 +2649,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D197,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2672,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D198,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2696,7 +2699,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D199,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2720,7 +2723,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D200,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2746,7 +2749,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D197,4)</f>
+        <f>RIGHT(D34:D198,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2776,7 +2779,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D198,4)</f>
+        <f>RIGHT(D35:D199,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2800,7 +2803,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D198,4)</f>
+        <f>RIGHT(D36:D199,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2828,7 +2831,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D200,4)</f>
+        <f>RIGHT(D37:D201,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2856,7 +2859,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D198,4)</f>
+        <f>RIGHT(D38:D199,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2886,7 +2889,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D199,4)</f>
+        <f>RIGHT(D39:D200,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2903,7 +2906,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D202,4)</f>
+        <f>RIGHT(D40:D203,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2928,7 +2931,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D204,4)</f>
+        <f>RIGHT(D41:D205,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2953,7 +2956,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D205,4)</f>
+        <f>RIGHT(D42:D206,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2980,7 +2983,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D204,4)</f>
+        <f>RIGHT(D43:D205,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -3005,7 +3008,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D205,4)</f>
+        <f>RIGHT(D44:D206,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3030,7 +3033,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D203,4)</f>
+        <f>RIGHT(D45:D204,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3055,7 +3058,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D202,4)</f>
+        <f>RIGHT(D46:D203,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3080,7 +3083,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D205,4)</f>
+        <f>RIGHT(D47:D206,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3105,7 +3108,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D206,4)</f>
+        <f>RIGHT(D48:D207,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3130,7 +3133,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D209,4)</f>
+        <f>RIGHT(D49:D210,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3154,7 +3157,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f t="shared" ref="A50:A55" si="2">RIGHT(D50:D214,4)</f>
+        <f>RIGHT(D50:D215,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3178,7 +3181,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D51:D216,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3202,7 +3205,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D52:D217,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3226,7 +3229,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D53:D218,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3252,7 +3255,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D54:D219,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3278,7 +3281,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D55:D220,4)</f>
         <v>7276</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3304,7 +3307,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D217,4)</f>
+        <f>RIGHT(D56:D218,4)</f>
         <v>6901</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3330,7 +3333,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D218,4)</f>
+        <f>RIGHT(D57:D219,4)</f>
         <v>6962</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3356,7 +3359,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D216,4)</f>
+        <f>RIGHT(D58:D217,4)</f>
         <v>6303</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3387,7 +3390,7 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D217,4)</f>
+        <f>RIGHT(D59:D218,4)</f>
         <v>7077</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -3412,7 +3415,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D217,4)</f>
+        <f>RIGHT(D60:D218,4)</f>
         <v>7080</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3442,7 +3445,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D218,4)</f>
+        <f>RIGHT(D61:D219,4)</f>
         <v>6762</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3468,7 +3471,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D218,4)</f>
+        <f>RIGHT(D62:D219,4)</f>
         <v>5820</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3494,7 +3497,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D219,4)</f>
+        <f>RIGHT(D63:D220,4)</f>
         <v>7082</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3518,7 +3521,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D220,4)</f>
+        <f>RIGHT(D64:D221,4)</f>
         <v>6764</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3542,7 +3545,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D222,4)</f>
+        <f>RIGHT(D65:D223,4)</f>
         <v>6761</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3566,7 +3569,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D223,4)</f>
+        <f>RIGHT(D66:D224,4)</f>
         <v>6767</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3590,7 +3593,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D223,4)</f>
+        <f>RIGHT(D67:D224,4)</f>
         <v>6765</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3614,7 +3617,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D224,4)</f>
+        <f>RIGHT(D68:D225,4)</f>
         <v>6909</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3640,7 +3643,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D225,4)</f>
+        <f>RIGHT(D69:D226,4)</f>
         <v>7284</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3666,7 +3669,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D225,4)</f>
+        <f>RIGHT(D70:D226,4)</f>
         <v>7250</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3692,7 +3695,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D225,4)</f>
+        <f>RIGHT(D71:D226,4)</f>
         <v>6987</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3718,7 +3721,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D223,4)</f>
+        <f>RIGHT(D72:D224,4)</f>
         <v>7066</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3748,7 +3751,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D224,4)</f>
+        <f>RIGHT(D73:D225,4)</f>
         <v>6837</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3774,7 +3777,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D225,4)</f>
+        <f>RIGHT(D74:D226,4)</f>
         <v>7271</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3798,7 +3801,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D225,4)</f>
+        <f>RIGHT(D75:D226,4)</f>
         <v>7244</v>
       </c>
       <c r="B75" s="45" t="s">
@@ -3822,7 +3825,7 @@
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D226,4)</f>
+        <f>RIGHT(D76:D227,4)</f>
         <v>6661</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -3847,7 +3850,7 @@
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D227,4)</f>
+        <f>RIGHT(D77:D228,4)</f>
         <v>6713</v>
       </c>
       <c r="B77" s="27" t="s">
@@ -3872,7 +3875,7 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D223,4)</f>
+        <f>RIGHT(D78:D224,4)</f>
         <v/>
       </c>
       <c r="B78" s="74" t="s">
@@ -3889,7 +3892,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D224,4)</f>
+        <f>RIGHT(D79:D225,4)</f>
         <v>5698</v>
       </c>
       <c r="B79" s="46" t="s">
@@ -3919,7 +3922,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D227,4)</f>
+        <f>RIGHT(D80:D228,4)</f>
         <v>6528</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -3943,7 +3946,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D228,4)</f>
+        <f>RIGHT(D81:D229,4)</f>
         <v>7059</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3969,7 +3972,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D228,4)</f>
+        <f>RIGHT(D82:D229,4)</f>
         <v>6609</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -3995,7 +3998,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D229,4)</f>
+        <f>RIGHT(D83:D230,4)</f>
         <v>7001</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4021,7 +4024,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D229,4)</f>
+        <f>RIGHT(D84:D230,4)</f>
         <v>6527</v>
       </c>
       <c r="B84" s="46" t="s">
@@ -4051,7 +4054,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D230,4)</f>
+        <f>RIGHT(D85:D231,4)</f>
         <v/>
       </c>
       <c r="B85" s="74" t="s">
@@ -4068,7 +4071,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D231,4)</f>
+        <f>RIGHT(D86:D232,4)</f>
         <v>7232</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -4096,22 +4099,24 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D232,4)</f>
-        <v>6785</v>
+        <f>RIGHT(D87:D233,4)</f>
+        <v>7332</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001300516785</v>
+        <v>1001301777332</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G87" s="23">
-        <f>E87*0.33</f>
+        <f>E87*F87</f>
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
@@ -4121,68 +4126,68 @@
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
         <f>RIGHT(D88:D233,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B88" s="96" t="s">
-        <v>101</v>
+        <v>6785</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>F88*E88</f>
+        <f>E88*0.33</f>
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14">
-        <v>50</v>
-      </c>
+      <c r="I88" s="14"/>
       <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D233,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>102</v>
+        <f>RIGHT(D89:D234,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B89" s="96" t="s">
+        <v>101</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D89" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="23"/>
+      <c r="F89" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G89" s="23">
-        <f>E89</f>
+        <f>F89*E89</f>
         <v>0</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="14">
+        <v>50</v>
+      </c>
       <c r="J89" s="39"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
         <f>RIGHT(D90:D234,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="23"/>
@@ -4196,17 +4201,17 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D234,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D91:D235,4)</f>
+        <v>4903</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4215,123 +4220,123 @@
         <v>0</v>
       </c>
       <c r="H91" s="14"/>
-      <c r="I91" s="14">
-        <v>45</v>
-      </c>
+      <c r="I91" s="14"/>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D232,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D92:D235,4)</f>
+        <v>7131</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D92" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F92" s="23"/>
       <c r="G92" s="23">
-        <f>E92*0.28</f>
+        <f>E92</f>
         <v>0</v>
       </c>
-      <c r="H92" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H92" s="14"/>
       <c r="I92" s="14">
         <v>45</v>
       </c>
       <c r="J92" s="39"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D235,4)</f>
-        <v/>
-      </c>
-      <c r="B93" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="73"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="75"/>
-    </row>
-    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D93:D233,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G93" s="23">
+        <f>E93*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I93" s="14">
+        <v>45</v>
+      </c>
+      <c r="J93" s="39"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="93" t="str">
         <f>RIGHT(D94:D236,4)</f>
+        <v/>
+      </c>
+      <c r="B94" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="74"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="75"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="93" t="str">
+        <f>RIGHT(D95:D237,4)</f>
         <v>7154</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B95" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G94" s="23">
-        <f>E94*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14">
-        <v>50</v>
-      </c>
-      <c r="J94" s="39"/>
-    </row>
-    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D238,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="23"/>
+      <c r="F95" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G95" s="23">
-        <f>E95*0.33</f>
+        <f>E95*0.35</f>
         <v>0</v>
       </c>
       <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="I95" s="14">
+        <v>50</v>
+      </c>
       <c r="J95" s="39"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
         <f>RIGHT(D96:D239,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
@@ -4345,17 +4350,17 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D239,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D97:D240,4)</f>
+        <v>6795</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23"/>
@@ -4369,76 +4374,76 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D239,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D98:D240,4)</f>
+        <v>6807</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*0.28</f>
+        <f>E98*0.33</f>
         <v>0</v>
       </c>
-      <c r="H98" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I98" s="14">
-        <v>45</v>
-      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D241,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D99:D240,4)</f>
+        <v>7236</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G99" s="23">
-        <f>E99*0.33</f>
+        <f>E99*0.28</f>
         <v>0</v>
       </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="H99" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I99" s="14">
+        <v>45</v>
+      </c>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
         <f>RIGHT(D100:D242,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*1</f>
+        <f>E100*0.33</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
@@ -4448,16 +4453,16 @@
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D243,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23"/>
@@ -4471,126 +4476,126 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D242,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B102" s="64" t="s">
-        <v>115</v>
+        <f>RIGHT(D102:D244,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D102" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F102" s="23"/>
       <c r="G102" s="23">
-        <f>E102*F102</f>
+        <f>E102*1</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="I102" s="14">
-        <v>50</v>
-      </c>
+      <c r="I102" s="14"/>
       <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D243,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="23"/>
+      <c r="F103" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G103" s="23">
-        <f>E103*0.33</f>
+        <f>E103*F103</f>
         <v>0</v>
       </c>
       <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="I103" s="14">
+        <v>50</v>
+      </c>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
         <f>RIGHT(D104:D244,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23">
-        <f>E104*1</f>
+        <f>E104*0.33</f>
         <v>0</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104" s="14">
-        <v>50</v>
-      </c>
+      <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
         <f>RIGHT(D105:D245,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D105" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F105" s="23"/>
       <c r="G105" s="23">
-        <f>E105*F105</f>
+        <f>E105*1</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="I105" s="14">
+        <v>50</v>
+      </c>
       <c r="J105" s="39"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
         <f>RIGHT(D106:D246,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
+      <c r="F106" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G106" s="23">
-        <f>E106*0.09</f>
+        <f>E106*F106</f>
         <v>0</v>
       </c>
       <c r="H106" s="14"/>
@@ -4599,17 +4604,17 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D244,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D107:D247,4)</f>
+        <v>6586</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23"/>
@@ -4624,23 +4629,21 @@
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
         <f>RIGHT(D108:D245,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>F108*E108</f>
+        <f>E108*0.09</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
@@ -4649,219 +4652,215 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D244,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D109:D246,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B109" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*1</f>
+        <f>F109*E109</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I109" s="14">
-        <v>45</v>
-      </c>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f t="shared" ref="A110:A115" si="3">RIGHT(D110:D246,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D110:D245,4)</f>
+        <v>5544</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C110" s="36" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D110" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*0.35</f>
+        <f>E110*1</f>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I110" s="14">
         <v>45</v>
       </c>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A111:A116" si="0">RIGHT(D111:D247,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G111" s="23">
+        <f>E111*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I111" s="14">
+        <v>45</v>
+      </c>
+      <c r="J111" s="39"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="93" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B112" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="75"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="93" t="str">
-        <f t="shared" si="3"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="75"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="93" t="str">
+        <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B113" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G112" s="23">
-        <f>E112*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="14">
-        <v>2</v>
-      </c>
-      <c r="I112" s="14">
-        <v>120</v>
-      </c>
-      <c r="J112" s="39"/>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6454</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G113" s="23">
-        <f>E113*0.1</f>
+        <f>E113*0.25</f>
         <v>0</v>
       </c>
       <c r="H113" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I113" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G114" s="23">
-        <f>E114*0.09</f>
+        <f>E114*0.1</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="H114" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I114" s="14">
+        <v>60</v>
+      </c>
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F115" s="23"/>
       <c r="G115" s="23">
-        <f>E115*0.22</f>
+        <f>E115*0.09</f>
         <v>0</v>
       </c>
-      <c r="H115" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I115" s="14">
-        <v>120</v>
-      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
       <c r="J115" s="39"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D253,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*1</f>
+        <f>E116*0.22</f>
         <v>0</v>
       </c>
       <c r="H116" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I116" s="14">
         <v>120</v>
@@ -4871,40 +4870,46 @@
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
         <f>RIGHT(D117:D254,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="23"/>
+      <c r="F117" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G117" s="23">
-        <f>E117</f>
+        <f>E117*1</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="H117" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I117" s="14">
+        <v>120</v>
+      </c>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
         <f>RIGHT(D118:D255,4)</f>
-        <v>7150</v>
+        <v>1146</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="28">
-        <v>1001063237150</v>
+        <v>1001061971146</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23"/>
@@ -4918,22 +4923,22 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D254,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D119:D256,4)</f>
+        <v>7150</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D119" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23"/>
       <c r="G119" s="23">
-        <f>E119*0.1</f>
+        <f>E119</f>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4943,23 +4948,21 @@
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
         <f>RIGHT(D120:D255,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F120" s="23"/>
       <c r="G120" s="23">
-        <f>F120*E120</f>
+        <f>E120*0.1</f>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4969,20 +4972,20 @@
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
         <f>RIGHT(D121:D256,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G121" s="23">
         <f>F121*E121</f>
@@ -4994,21 +4997,21 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D256,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D122:D257,4)</f>
+        <v>6221</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G122" s="23">
         <f>F122*E122</f>
@@ -5020,80 +5023,80 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f t="shared" ref="A123:A128" si="4">RIGHT(D123:D258,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D123:D257,4)</f>
+        <v>5679</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G123" s="23">
-        <f>E123*0.25</f>
+        <f>F123*E123</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14">
-        <v>2</v>
-      </c>
-      <c r="I123" s="14">
-        <v>120</v>
-      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="39"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7105</v>
+        <f t="shared" ref="A124:A129" si="1">RIGHT(D124:D259,4)</f>
+        <v>4993</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" ref="G124:G132" si="5">F124*E124</f>
+        <f>E124*0.25</f>
         <v>0</v>
       </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="H124" s="14">
+        <v>2</v>
+      </c>
+      <c r="I124" s="14">
+        <v>120</v>
+      </c>
       <c r="J124" s="39"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7106</v>
+        <f t="shared" si="1"/>
+        <v>7105</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
         <v>0.09</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G125:G133" si="2">F125*E125</f>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5102,24 +5105,24 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7107</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
         <v>0.09</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5128,24 +5131,24 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7147</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5154,24 +5157,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>7229</v>
+        <f t="shared" si="1"/>
+        <v>7147</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5180,24 +5183,24 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D263,4)</f>
-        <v>7225</v>
+        <f t="shared" si="1"/>
+        <v>7229</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.18</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5207,23 +5210,23 @@
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D264,4)</f>
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
         <v>0.18</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5233,23 +5236,23 @@
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
         <f>RIGHT(D131:D265,4)</f>
-        <v>7226</v>
+        <v>7227</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
         <v>0.18</v>
       </c>
       <c r="G131" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H131" s="14"/>
@@ -5258,24 +5261,24 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D259,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D132:D266,4)</f>
+        <v>7226</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G132" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5284,209 +5287,209 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D259,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D133:D260,4)</f>
+        <v>3684</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G133" s="23">
-        <f>E133*0.12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H133" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I133" s="14">
-        <v>60</v>
-      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="39"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D262,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D134:D260,4)</f>
+        <v>5682</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D134" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G134" s="23">
-        <f>E134*1</f>
+        <f>E134*0.12</f>
         <v>0</v>
       </c>
       <c r="H134" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I134" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J134" s="39"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D263,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="23"/>
+      <c r="F135" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G135" s="23">
-        <f>E135</f>
+        <f>E135*1</f>
         <v>0</v>
       </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="H135" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I135" s="14">
+        <v>120</v>
+      </c>
       <c r="J135" s="39"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D263,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D136:D264,4)</f>
+        <v>3680</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>26</v>
+        <v>148</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D136" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F136" s="23"/>
       <c r="G136" s="23">
-        <f>E136*0.25</f>
+        <f>E136</f>
         <v>0</v>
       </c>
-      <c r="H136" s="14">
-        <v>2</v>
-      </c>
-      <c r="I136" s="14">
-        <v>120</v>
-      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D264,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G137" s="23">
-        <f>E137*0.1</f>
+        <f>E137*0.25</f>
         <v>0</v>
       </c>
       <c r="H137" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I137" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D265,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G138" s="23">
+        <f>E138*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I138" s="14">
+        <v>60</v>
+      </c>
+      <c r="J138" s="39"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="93" t="str">
+        <f>RIGHT(D139:D266,4)</f>
         <v/>
       </c>
-      <c r="B138" s="74" t="s">
+      <c r="B139" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="75"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D269,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B139" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23">
-        <f>E139*1</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="75"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D270,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D140" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F140" s="23"/>
       <c r="G140" s="23">
-        <f>F140*E140</f>
+        <f>E140*1</f>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
@@ -5496,20 +5499,20 @@
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D271,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G141" s="23">
         <f>F141*E141</f>
@@ -5522,20 +5525,20 @@
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D272,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G142" s="23">
         <f>F142*E142</f>
@@ -5547,22 +5550,24 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D270,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D143:D273,4)</f>
+        <v>6411</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D143" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
+      <c r="F143" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G143" s="23">
-        <f>E143*1</f>
+        <f>F143*E143</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
@@ -5571,47 +5576,41 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D267,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D144:D271,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F144" s="23"/>
       <c r="G144" s="23">
-        <f>E144*0.4</f>
+        <f>E144*1</f>
         <v>0</v>
       </c>
-      <c r="H144" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I144" s="14">
-        <v>60</v>
-      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="39"/>
     </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D268,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
@@ -5621,101 +5620,105 @@
         <f>E145*0.4</f>
         <v>0</v>
       </c>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
+      <c r="H145" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I145" s="14">
+        <v>60</v>
+      </c>
       <c r="J145" s="39"/>
     </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D270,4)</f>
+        <f>RIGHT(D146:D269,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G146" s="23">
+        <f>E146*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="39"/>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="93" t="str">
+        <f>RIGHT(D147:D271,4)</f>
         <v/>
       </c>
-      <c r="B146" s="74" t="s">
+      <c r="B147" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="75"/>
-    </row>
-    <row r="147" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D273,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B147" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C147" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E147" s="24"/>
-      <c r="F147" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G147" s="23">
-        <f>E147*F147</f>
-        <v>0</v>
-      </c>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14">
-        <v>50</v>
-      </c>
-      <c r="J147" s="39"/>
-    </row>
-    <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="73"/>
+      <c r="G147" s="74"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="75"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D274,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
         <v>0.3</v>
       </c>
       <c r="G148" s="23">
-        <f t="shared" ref="G148:G154" si="6">F148*E148</f>
+        <f>E148*F148</f>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="92"/>
+      <c r="I148" s="14">
+        <v>50</v>
+      </c>
+      <c r="J148" s="39"/>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D275,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
         <v>0.3</v>
       </c>
       <c r="G149" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G149:G155" si="3">F149*E149</f>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5725,23 +5728,23 @@
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D276,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G150" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5750,24 +5753,24 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D276,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D151:D277,4)</f>
+        <v>6201</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G151" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5776,24 +5779,24 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D276,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D152:D277,4)</f>
+        <v>6842</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
         <v>0.3</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5802,24 +5805,24 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D274,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D153:D277,4)</f>
+        <v>6492</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G153" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5829,23 +5832,23 @@
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D275,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G154" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
@@ -5855,23 +5858,23 @@
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D276,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G155" s="23">
-        <f>E155</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
@@ -5880,17 +5883,17 @@
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D276,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D156:D277,4)</f>
+        <v>7052</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D156" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
@@ -5906,47 +5909,47 @@
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D276,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D157:D277,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D157" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G157" s="23">
-        <f>F157*E157</f>
+        <f>E157</f>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
-      <c r="J157" s="39"/>
+      <c r="J157" s="92"/>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D277,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E158" s="24"/>
       <c r="F158" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G158" s="23">
         <f>F158*E158</f>
@@ -5954,56 +5957,65 @@
       </c>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="92"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J158" s="39"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D274,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="35" t="s">
+        <f>RIGHT(D159:D278,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D159" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E159" s="24"/>
-      <c r="F159" s="23"/>
+      <c r="F159" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G159" s="23">
-        <f>E159*0.18</f>
+        <f>F159*E159</f>
         <v>0</v>
       </c>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="92"/>
     </row>
-    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D275,4)</f>
-        <v/>
-      </c>
-      <c r="B160" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
-      <c r="I160" s="74"/>
-      <c r="J160" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23">
+        <f>E160*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="92"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="93" t="str">
-        <f>RIGHT(D161:D278,4)</f>
+        <f>RIGHT(D161:D276,4)</f>
         <v/>
       </c>
       <c r="B161" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C161" s="74"/>
       <c r="D161" s="74"/>
@@ -6014,73 +6026,66 @@
       <c r="I161" s="74"/>
       <c r="J161" s="75"/>
     </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D279,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B162" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E162" s="24"/>
-      <c r="F162" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G162" s="23">
-        <f>E162*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H162" s="14">
-        <v>8</v>
-      </c>
-      <c r="I162" s="72">
-        <v>120</v>
-      </c>
-      <c r="J162" s="39"/>
-    </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B162" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="75"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
         <f>RIGHT(D163:D280,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E163" s="24"/>
-      <c r="F163" s="23"/>
+      <c r="F163" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G163" s="23">
-        <f>E163*0.45</f>
+        <f>E163*0.5</f>
         <v>0</v>
       </c>
-      <c r="H163" s="14"/>
-      <c r="I163" s="72"/>
+      <c r="H163" s="14">
+        <v>8</v>
+      </c>
+      <c r="I163" s="72">
+        <v>120</v>
+      </c>
       <c r="J163" s="39"/>
     </row>
     <row r="164" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
         <f>RIGHT(D164:D281,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D164" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23"/>
@@ -6092,174 +6097,168 @@
       <c r="I164" s="72"/>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="93" t="str">
-        <f t="shared" ref="A165:A176" si="7">RIGHT(D165:D280,4)</f>
+        <f>RIGHT(D165:D282,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="23">
+        <f>E165*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="14"/>
+      <c r="I165" s="72"/>
+      <c r="J165" s="39"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="93" t="str">
+        <f t="shared" ref="A166:A177" si="4">RIGHT(D166:D281,4)</f>
         <v>6313</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B166" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C166" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="28">
+      <c r="D166" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="23">
+      <c r="E166" s="24"/>
+      <c r="F166" s="23">
         <v>0.9</v>
       </c>
-      <c r="G165" s="23">
-        <f>E165*0.9</f>
+      <c r="G166" s="23">
+        <f>E166*0.9</f>
         <v>0</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H166" s="14">
         <v>9</v>
       </c>
-      <c r="I165" s="72">
+      <c r="I166" s="72">
         <v>120</v>
       </c>
-      <c r="J165" s="39"/>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B166" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="74"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="75"/>
+      <c r="J166" s="39"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>4945</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G167" s="23">
-        <f>E167*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H167" s="14">
-        <v>8</v>
-      </c>
-      <c r="I167" s="72">
-        <v>120</v>
-      </c>
-      <c r="J167" s="39"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B167" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="75"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>4945</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E168" s="24"/>
+      <c r="F168" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G168" s="23">
+        <f>E168*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="14">
+        <v>8</v>
+      </c>
+      <c r="I168" s="72">
+        <v>120</v>
+      </c>
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="93" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="B168" s="74" t="s">
+      <c r="B169" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="75"/>
-    </row>
-    <row r="169" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="93" t="str">
-        <f t="shared" si="7"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="75"/>
+    </row>
+    <row r="170" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>4956</v>
       </c>
-      <c r="B169" s="89" t="s">
+      <c r="B170" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C169" s="90" t="s">
+      <c r="C170" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D169" s="83">
+      <c r="D170" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E169" s="84"/>
-      <c r="F169" s="85">
+      <c r="E170" s="84"/>
+      <c r="F170" s="85">
         <v>0.42</v>
       </c>
-      <c r="G169" s="85">
-        <f>E169*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H169" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I169" s="91">
-        <v>120</v>
-      </c>
-      <c r="J169" s="86"/>
-      <c r="K169" s="87"/>
-    </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1762</v>
-      </c>
-      <c r="B170" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G170" s="23">
+      <c r="G170" s="85">
         <f>E170*0.42</f>
         <v>0</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H170" s="86">
         <v>4.2</v>
       </c>
-      <c r="I170" s="72">
+      <c r="I170" s="91">
         <v>120</v>
       </c>
-      <c r="J170" s="39"/>
-    </row>
-    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J170" s="86"/>
+      <c r="K170" s="87"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A171" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>1764</v>
+        <f t="shared" si="4"/>
+        <v>1762</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D171" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E171" s="24"/>
       <c r="F171" s="23">
@@ -6277,30 +6276,43 @@
       </c>
       <c r="J171" s="39"/>
     </row>
-    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="B172" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="75"/>
+        <f t="shared" si="4"/>
+        <v>1764</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E172" s="24"/>
+      <c r="F172" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G172" s="23">
+        <f>E172*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I172" s="72">
+        <v>120</v>
+      </c>
+      <c r="J172" s="39"/>
     </row>
     <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B173" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C173" s="74"/>
       <c r="D173" s="74"/>
@@ -6313,131 +6325,138 @@
     </row>
     <row r="174" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B174" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="74"/>
+      <c r="F174" s="73"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="74"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="75"/>
+    </row>
+    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
-      <c r="B174" s="47" t="s">
+      <c r="B175" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="36" t="s">
+      <c r="C175" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D174" s="68" t="s">
+      <c r="D175" s="68" t="s">
         <v>188</v>
-      </c>
-      <c r="E174" s="24"/>
-      <c r="F174" s="23">
-        <v>1</v>
-      </c>
-      <c r="G174" s="23">
-        <f>E174*1</f>
-        <v>0</v>
-      </c>
-      <c r="H174" s="14">
-        <v>8</v>
-      </c>
-      <c r="I174" s="72">
-        <v>120</v>
-      </c>
-      <c r="J174" s="39"/>
-    </row>
-    <row r="175" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>5417</v>
-      </c>
-      <c r="B175" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" s="68" t="s">
-        <v>190</v>
       </c>
       <c r="E175" s="24"/>
       <c r="F175" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G175" s="23">
         <f>E175*1</f>
         <v>0</v>
       </c>
       <c r="H175" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I175" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J175" s="39"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A176" s="93" t="str">
-        <f t="shared" si="7"/>
-        <v>6019</v>
+        <f t="shared" si="4"/>
+        <v>5417</v>
       </c>
       <c r="B176" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C176" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D176" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="68" t="s">
+        <v>190</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" s="23">
         <f>E176*1</f>
         <v>0</v>
       </c>
       <c r="H176" s="14">
+        <v>6</v>
+      </c>
+      <c r="I176" s="72">
+        <v>90</v>
+      </c>
+      <c r="J176" s="39"/>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177" s="24"/>
+      <c r="F177" s="23">
+        <v>1</v>
+      </c>
+      <c r="G177" s="23">
+        <f>E177*1</f>
+        <v>0</v>
+      </c>
+      <c r="H177" s="14">
         <v>12</v>
       </c>
-      <c r="I176" s="72">
+      <c r="I177" s="72">
         <v>120</v>
       </c>
-      <c r="J176" s="39"/>
-    </row>
-    <row r="177" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="77"/>
-      <c r="B177" s="77" t="s">
+      <c r="J177" s="39"/>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="77"/>
+      <c r="B178" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="17">
-        <f>SUM(E5:E176)</f>
+      <c r="C178" s="16"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="17">
+        <f>SUM(E5:E177)</f>
         <v>0</v>
       </c>
-      <c r="F177" s="17">
-        <f>SUM(F10:F176)</f>
-        <v>45.753333333333309</v>
-      </c>
-      <c r="G177" s="17">
-        <f>SUM(G11:G176)</f>
+      <c r="F178" s="17">
+        <f>SUM(F10:F177)</f>
+        <v>46.03333333333331</v>
+      </c>
+      <c r="G178" s="17">
+        <f>SUM(G11:G177)</f>
         <v>0</v>
       </c>
-      <c r="H177" s="17">
-        <f>SUM(H10:H173)</f>
+      <c r="H178" s="17">
+        <f>SUM(H10:H174)</f>
         <v>128.91</v>
       </c>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="53"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="52"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="21"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B179" s="53"/>
       <c r="C179" s="18"/>
       <c r="D179" s="52"/>
@@ -21667,17 +21686,27 @@
       <c r="I1701" s="20"/>
       <c r="J1701" s="21"/>
     </row>
+    <row r="1702" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1702" s="53"/>
+      <c r="C1702" s="18"/>
+      <c r="D1702" s="52"/>
+      <c r="F1702" s="19"/>
+      <c r="G1702" s="19"/>
+      <c r="H1702" s="20"/>
+      <c r="I1702" s="20"/>
+      <c r="J1702" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J177" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J178" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B170" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B171" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D174:D176" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D175:D177" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
